--- a/biology/Botanique/Renouée_maritime/Renouée_maritime.xlsx
+++ b/biology/Botanique/Renouée_maritime/Renouée_maritime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_maritime</t>
+          <t>Renouée_maritime</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polygonum maritimum
 La renouée maritime (Polygonum maritimum) est une espèce de plante à fleurs vivace du genre Polygonum (des renouées) et de la famille des Polygonacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_maritime</t>
+          <t>Renouée_maritime</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haute de 10 à 50 cm elle se reconnaît notamment à ses feuilles de couleur glauque, et à ses petites fleurs blanches naissant à l'aisselle des feuilles. Elle possède une racine ligneuse à la base, beaucoup plus importante que sa partie hors sol ce qui lui permet visiblement de résister à la sécheresse du climat méditerranéen et aux hautes température du sable où elle pousse. Ses feuilles coriaces, épaisses, enroulées sur les bords, longues de 10 à 15 mm sur 5[1] l'aident à limiter sa transpiration. On lui prête la propriété, en infusion, d'éliminer les calculs rénaux d'où son nom "Sciappa pedra" ( "casse pierre").
-Sa floraison a lieu d'avril[2] ou mai à octobre[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haute de 10 à 50 cm elle se reconnaît notamment à ses feuilles de couleur glauque, et à ses petites fleurs blanches naissant à l'aisselle des feuilles. Elle possède une racine ligneuse à la base, beaucoup plus importante que sa partie hors sol ce qui lui permet visiblement de résister à la sécheresse du climat méditerranéen et aux hautes température du sable où elle pousse. Ses feuilles coriaces, épaisses, enroulées sur les bords, longues de 10 à 15 mm sur 5 l'aident à limiter sa transpiration. On lui prête la propriété, en infusion, d'éliminer les calculs rénaux d'où son nom "Sciappa pedra" ( "casse pierre").
+Sa floraison a lieu d'avril ou mai à octobre.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_maritime</t>
+          <t>Renouée_maritime</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle pousse sur les sables du littoral, sur les côtes rocheuses et au bord des routes.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_maritime</t>
+          <t>Renouée_maritime</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans tout le bassin méditerranéen[2], ainsi que sur les côtes de la Manche et de l'Atlantique.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans tout le bassin méditerranéen, ainsi que sur les côtes de la Manche et de l'Atlantique.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_maritime</t>
+          <t>Renouée_maritime</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, cette espèce est protégée dans les régions Basse-Normandie, Bretagne et Pays de la Loire (Article 1).
 </t>
